--- a/database2020.xlsx
+++ b/database2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600"/>
+    <workbookView xWindow="-440" yWindow="0" windowWidth="25520" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>BASES DE DATOS 302 ISW 2020-2021</t>
   </si>
@@ -59,77 +59,143 @@
     <t>Diego Iván Pérez Conde</t>
   </si>
   <si>
-    <t>ZS19004883</t>
-  </si>
-  <si>
-    <t>ZS19004907</t>
-  </si>
-  <si>
-    <t>ZS19004864</t>
-  </si>
-  <si>
-    <t>ZS19004857</t>
-  </si>
-  <si>
-    <t>ZS19022507</t>
-  </si>
-  <si>
-    <t>ZS19004896</t>
-  </si>
-  <si>
     <t>Irving Saul Jiménez Caballero</t>
   </si>
   <si>
-    <t>ZS19022502</t>
-  </si>
-  <si>
-    <t>ZS19004884</t>
-  </si>
-  <si>
     <t>Monserrat Meneses Romero</t>
   </si>
   <si>
     <t>Carlos Mauricio Gonzalez Soriano</t>
   </si>
   <si>
-    <t>ZS19004860</t>
-  </si>
-  <si>
     <t>Leonardo Daniel Montiel Martínez</t>
   </si>
   <si>
-    <t>ZS19004869</t>
-  </si>
-  <si>
     <t>Jesus Adrian Molina Hernández</t>
   </si>
   <si>
-    <t>ZS19022504</t>
-  </si>
-  <si>
     <t>Sergio de Jesús Reyes Gómez</t>
   </si>
   <si>
-    <t>ZS19004881</t>
-  </si>
-  <si>
     <t>Israel Martínez Almanza</t>
   </si>
   <si>
-    <t>ZS19004855</t>
-  </si>
-  <si>
     <t>Cristian Gomez</t>
   </si>
   <si>
     <t>Bernardo Santos Lopez</t>
+  </si>
+  <si>
+    <t>git url</t>
+  </si>
+  <si>
+    <t>https://github.com/sergiojmnz/BD_SergioJimenez</t>
+  </si>
+  <si>
+    <t>https://github.com/obedhipolito/BD_obedhipolito</t>
+  </si>
+  <si>
+    <t>Jesus Alfredo Sarabia Lopez</t>
+  </si>
+  <si>
+    <t>https://github.com/DenisAGS/BD_DenisseSantos</t>
+  </si>
+  <si>
+    <t>https://github.com/Oswaaaldo6/BD_OswaldoCoronaPerez</t>
+  </si>
+  <si>
+    <t>https://github.com/MonseMeneses/BD_MonseMeneses</t>
+  </si>
+  <si>
+    <t>https://github.com/Jesux-rg/BD_SergioReyes</t>
+  </si>
+  <si>
+    <t>https://github.com/caballero199703/BD_irving_caballero</t>
+  </si>
+  <si>
+    <t>https://github.com/DieguitoPerez/BD_DiegoIvanPerezConde</t>
+  </si>
+  <si>
+    <t>https://github.com/Heisenberg456i/BD_IsraelMArtinez</t>
+  </si>
+  <si>
+    <t>https://github.com/Cristiangomez29/BD_cristiangomez</t>
+  </si>
+  <si>
+    <t>https://github.com/Maugleso/BD_CarlosMauricioGonzalez</t>
+  </si>
+  <si>
+    <t>https://github.com/BernardoSantosLop/BD_BernardoSantos</t>
+  </si>
+  <si>
+    <t>https://github.com/jesussarabial/BD_Alfredosarabia</t>
+  </si>
+  <si>
+    <t>https://github.com/ArturoZilliRios/BD_ArturoZilliRios</t>
+  </si>
+  <si>
+    <t>https://github.com/xXLeonardoMartinezXX/BD_LeonardoMartinez</t>
+  </si>
+  <si>
+    <t>https://github.com/Molinaadrian/BD_AdrianMolina</t>
+  </si>
+  <si>
+    <t>t1 intro</t>
+  </si>
+  <si>
+    <t>arturozr</t>
+  </si>
+  <si>
+    <t>denisseags</t>
+  </si>
+  <si>
+    <t>joseomh</t>
+  </si>
+  <si>
+    <t>oswaldocp</t>
+  </si>
+  <si>
+    <t>sergiojc</t>
+  </si>
+  <si>
+    <t>diegoipc</t>
+  </si>
+  <si>
+    <t>irvingsjc</t>
+  </si>
+  <si>
+    <t>monserratmgr</t>
+  </si>
+  <si>
+    <t>carlosmgs</t>
+  </si>
+  <si>
+    <t>leonardodmm</t>
+  </si>
+  <si>
+    <t>jesusamh</t>
+  </si>
+  <si>
+    <t>sergiodjrg</t>
+  </si>
+  <si>
+    <t>israelma</t>
+  </si>
+  <si>
+    <t>bernardosl</t>
+  </si>
+  <si>
+    <t>jesusasl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +206,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,10 +262,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -191,8 +285,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,233 +614,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
     </row>

--- a/database2020.xlsx
+++ b/database2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-440" yWindow="0" windowWidth="25520" windowHeight="15600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>BASES DE DATOS 302 ISW 2020-2021</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Oswaldo Antonio Lopez Solano</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>Isaed Josaphat Romero Duran</t>
   </si>
 </sst>
 </file>
@@ -606,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,18 +626,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -668,6 +683,9 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
       <c r="H3">
         <v>1</v>
       </c>
@@ -691,6 +709,9 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -714,6 +735,9 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5">
         <v>0</v>
       </c>
@@ -737,6 +761,9 @@
       <c r="F6">
         <v>1</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
       <c r="H6">
         <v>0</v>
       </c>
@@ -760,6 +787,9 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
       <c r="H7">
         <v>0</v>
       </c>
@@ -783,6 +813,9 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -806,6 +839,9 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
       <c r="H9">
         <v>0</v>
       </c>
@@ -829,6 +865,9 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
@@ -849,6 +888,9 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -869,6 +911,9 @@
       <c r="F12">
         <v>1</v>
       </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -889,6 +934,9 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -909,6 +957,9 @@
       <c r="F14">
         <v>1</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -929,6 +980,9 @@
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -949,8 +1003,11 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -969,8 +1026,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -987,6 +1047,55 @@
         <v>1</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>1</v>
       </c>
     </row>

--- a/database2020.xlsx
+++ b/database2020.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>BASES DE DATOS 302 ISW 2020-2021</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>Isaed Josaphat Romero Duran</t>
+  </si>
+  <si>
+    <t>Gabriel Antonio Pulido Salas</t>
+  </si>
+  <si>
+    <t>Ignacio Varela Lucho</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -626,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -640,17 +646,17 @@
     <col min="4" max="4" width="3" customWidth="1"/>
     <col min="5" max="5" width="2.33203125" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="7" max="12" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -660,11 +666,11 @@
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -689,8 +695,17 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -713,10 +728,19 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -741,8 +765,17 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -765,10 +798,19 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -791,10 +833,19 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -817,10 +868,19 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -843,10 +903,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -868,8 +937,17 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -891,8 +969,17 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -914,8 +1001,17 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -937,8 +1033,17 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -960,8 +1065,17 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -983,8 +1097,17 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1006,8 +1129,17 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1029,8 +1161,17 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1052,8 +1193,17 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -1075,8 +1225,17 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1096,6 +1255,67 @@
         <v>0</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>1</v>
       </c>
     </row>
